--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23670" windowHeight="11745" activeTab="4"/>
+    <workbookView windowWidth="23670" windowHeight="11745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>_Id</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>放哪个技能</t>
+  </si>
+  <si>
+    <t>火球</t>
+  </si>
+  <si>
+    <t>Fire,Fire</t>
+  </si>
+  <si>
+    <t>蒸汽</t>
+  </si>
+  <si>
+    <t>Fire,Water</t>
   </si>
   <si>
     <t>Type</t>
@@ -191,17 +203,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,10 +247,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,9 +303,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,29 +326,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,45 +348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,14 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,66 +370,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,12 +508,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,48 +532,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -528,24 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,11 +564,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +614,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,21 +653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -630,179 +661,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,13 +1340,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
   </cols>
@@ -1377,6 +1382,28 @@
       </c>
       <c r="C3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1388,35 +1415,35 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1447,22 +1474,32 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1523,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1540,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1551,13 +1588,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1619,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1645,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -1659,19 +1696,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23670" windowHeight="11745" activeTab="3"/>
+    <workbookView windowWidth="23670" windowHeight="11745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>_Id</t>
   </si>
   <si>
+    <t>Model</t>
+  </si>
+  <si>
     <t>MaxHp</t>
   </si>
   <si>
@@ -57,6 +60,18 @@
     <t>技能</t>
   </si>
   <si>
+    <t>Muq</t>
+  </si>
+  <si>
+    <t>帕秋莉</t>
+  </si>
+  <si>
+    <t>琪露诺</t>
+  </si>
+  <si>
+    <t>冰锥,完美冻结,靠近</t>
+  </si>
+  <si>
     <t>QualityAll</t>
   </si>
   <si>
@@ -66,15 +81,42 @@
     <t>Qualitys</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>全随骰子质量</t>
   </si>
   <si>
-    <t>固定面</t>
+    <t>固定面，和半随机面总和为6</t>
   </si>
   <si>
     <t>半随机面</t>
   </si>
   <si>
+    <t>测试骰子1</t>
+  </si>
+  <si>
+    <t>测试骰子2</t>
+  </si>
+  <si>
+    <t>测试面1,测试面1,测试面1,测试面1,测试面1,测试面1</t>
+  </si>
+  <si>
+    <t>测试骰子3</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,2</t>
+  </si>
+  <si>
+    <t>测试骰子4</t>
+  </si>
+  <si>
+    <t>测试面2,测试面3</t>
+  </si>
+  <si>
+    <t>1,1,1,2</t>
+  </si>
+  <si>
     <t>Quality</t>
   </si>
   <si>
@@ -90,6 +132,54 @@
     <t>面元素</t>
   </si>
   <si>
+    <t>测试面1</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>测试面2</t>
+  </si>
+  <si>
+    <t>Fire,Fire</t>
+  </si>
+  <si>
+    <t>测试面3</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>测试面4</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>测试面5</t>
+  </si>
+  <si>
+    <t>Wood,Fire</t>
+  </si>
+  <si>
+    <t>测试面6</t>
+  </si>
+  <si>
+    <t>Fire,Sun</t>
+  </si>
+  <si>
+    <t>测试面7</t>
+  </si>
+  <si>
+    <t>Sun,Sun</t>
+  </si>
+  <si>
+    <t>测试面8</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
     <t>_SkillId</t>
   </si>
   <si>
@@ -99,22 +189,34 @@
     <t>放哪个技能</t>
   </si>
   <si>
-    <t>火球</t>
-  </si>
-  <si>
-    <t>Fire,Fire</t>
-  </si>
-  <si>
-    <t>蒸汽</t>
-  </si>
-  <si>
-    <t>Fire,Water</t>
+    <t>火</t>
+  </si>
+  <si>
+    <t>火神之光</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>风灵之歌</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>Sun,Sun,Sun</t>
+  </si>
+  <si>
+    <t>皇家圣焰</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Range</t>
+    <t>RangMin</t>
+  </si>
+  <si>
+    <t>RangeMax</t>
   </si>
   <si>
     <t>Area</t>
@@ -126,9 +228,30 @@
     <t>CastTime</t>
   </si>
   <si>
+    <t>Displacement</t>
+  </si>
+  <si>
     <t>_Buffs</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>#怪物决策用</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>SkillDecisionEnum</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -144,21 +267,63 @@
     <t>咏唱时间</t>
   </si>
   <si>
+    <t>位移</t>
+  </si>
+  <si>
     <t>加什么buff</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>决策方式</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>至少填1</t>
+  </si>
+  <si>
+    <t>用猛烈的火焰灼烧敌人</t>
+  </si>
+  <si>
+    <t>用风之力推动自己</t>
+  </si>
+  <si>
+    <t>用强烈的日光灼烧万物，威力很大，但是不会烧到自己</t>
+  </si>
+  <si>
+    <t>靠近</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>远离</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>冰锥</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>完美冻结</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
     <t>FaceQualitys</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>总和</t>
   </si>
   <si>
@@ -168,6 +333,21 @@
     <t>同和情况权重</t>
   </si>
   <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>8_1</t>
+  </si>
+  <si>
+    <t>1,1,1,1,2,2</t>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,3</t>
+  </si>
+  <si>
     <t>MapSize</t>
   </si>
   <si>
@@ -196,6 +376,15 @@
   </si>
   <si>
     <t>暂时没用</t>
+  </si>
+  <si>
+    <t>测试关</t>
+  </si>
+  <si>
+    <t>琪露诺,琪露诺</t>
+  </si>
+  <si>
+    <t>5,6</t>
   </si>
 </sst>
 </file>
@@ -204,14 +393,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -361,12 +564,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -669,10 +878,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,138 +890,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,18 +1381,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,26 +1406,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -1214,6 +1436,40 @@
       </c>
       <c r="D3" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1226,15 +1482,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="53.25" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1242,41 +1500,76 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1289,45 +1582,137 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1340,15 +1725,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1356,54 +1741,65 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1415,91 +1811,292 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="22.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:10">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1526,12 +2123,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1543,16 +2140,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1560,41 +2157,83 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +2248,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1621,12 +2260,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1638,13 +2277,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
@@ -1656,59 +2295,76 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>_Id</t>
   </si>
@@ -219,7 +219,10 @@
     <t>RangeMax</t>
   </si>
   <si>
-    <t>Area</t>
+    <t>AreaMin</t>
+  </si>
+  <si>
+    <t>AreaMax</t>
   </si>
   <si>
     <t>Damage</t>
@@ -392,10 +395,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -421,7 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,7 +432,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,6 +448,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,14 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -482,15 +484,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,17 +537,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,37 +551,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,187 +582,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,60 +773,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -842,7 +791,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,8 +814,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,145 +881,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1811,21 +1814,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="22.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1853,13 +1856,13 @@
       <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M1" t="s">
@@ -1868,8 +1871,11 @@
       <c r="N1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1895,35 +1901,35 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
         <v>79</v>
       </c>
       <c r="G3" t="s">
@@ -1935,10 +1941,10 @@
       <c r="I3" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>83</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="M3" t="s">
@@ -1947,16 +1953,19 @@
       <c r="N3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1966,15 +1975,14 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5"/>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1984,28 +1992,28 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:10">
+      <c r="K6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:11">
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>90</v>
+      <c r="K7" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2013,9 +2021,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2023,22 +2031,22 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9">
         <v>-1</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2046,22 +2054,22 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-1</v>
       </c>
-      <c r="L10" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10">
         <v>-1</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2069,19 +2077,19 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="L11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11">
+      <c r="M11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2089,13 +2097,13 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="L12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12">
+      <c r="M12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
     </row>
@@ -2157,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2185,18 +2193,18 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -2210,13 +2218,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -2224,13 +2232,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2295,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2335,33 +2343,33 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>1</v>
